--- a/nuon/instagram_posts_ooroom_home.xlsx
+++ b/nuon/instagram_posts_ooroom_home.xlsx
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>24</v>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>26</v>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>49</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>28</v>
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -4026,7 +4026,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>16</v>
